--- a/biology/Botanique/Parc_Łazienki/Parc_Łazienki.xlsx
+++ b/biology/Botanique/Parc_Łazienki/Parc_Łazienki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_%C5%81azienki</t>
+          <t>Parc_Łazienki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Łazienki (en polonais: Park Łazienkowski ou Łazienki Królewskie) (« parc des Bains »), est un parc urbain de 76 hectares situé dans la ville de Varsovie en Pologne. C'est le plus grand parc de la ville ; il se trouve dans le quartier Śródmieście, à l'est de l'Aleje Ujazdowskie, et au sud de la route royale (Droga Królewska), qui relie le Palais royal à Wilanów. Il donne au nord sur le parc Ujazdowski, situé au nord de l'Agricola.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_%C5%81azienki</t>
+          <t>Parc_Łazienki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins, de style baroque, ont été dessinés au XVIIe siècle par Tylman van Gameren, sur commande de Ujazdów Stanisław Lubomirski. Ils doivent leur nom à des bains qui se trouvaient jadis en ce lieu. En 1764, année de son élection au trône, le roi Stanisław August Poniatowski acquit le jardin du palais.
 			Palais Łazienki
